--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.406955</v>
+        <v>6.325956666666666</v>
       </c>
       <c r="H2">
-        <v>19.220865</v>
+        <v>18.97787</v>
       </c>
       <c r="I2">
-        <v>0.2800966009992835</v>
+        <v>0.4468357575736242</v>
       </c>
       <c r="J2">
-        <v>0.3266544289500554</v>
+        <v>0.4592138460625664</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N2">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O2">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P2">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q2">
-        <v>262.1553104997583</v>
+        <v>192.7281983823556</v>
       </c>
       <c r="R2">
-        <v>2359.397794497825</v>
+        <v>1734.5537854412</v>
       </c>
       <c r="S2">
-        <v>0.08116558553352851</v>
+        <v>0.09765061479583867</v>
       </c>
       <c r="T2">
-        <v>0.100722715885935</v>
+        <v>0.107067270388134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.406955</v>
+        <v>6.325956666666666</v>
       </c>
       <c r="H3">
-        <v>19.220865</v>
+        <v>18.97787</v>
       </c>
       <c r="I3">
-        <v>0.2800966009992835</v>
+        <v>0.4468357575736242</v>
       </c>
       <c r="J3">
-        <v>0.3266544289500554</v>
+        <v>0.4592138460625664</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>104.214408</v>
       </c>
       <c r="O3">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P3">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q3">
-        <v>222.56567413588</v>
+        <v>219.7519430167733</v>
       </c>
       <c r="R3">
-        <v>2003.09106722292</v>
+        <v>1977.76748715096</v>
       </c>
       <c r="S3">
-        <v>0.06890828656671388</v>
+        <v>0.1113428783036484</v>
       </c>
       <c r="T3">
-        <v>0.08551197806832332</v>
+        <v>0.1220799078639066</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.406955</v>
+        <v>6.325956666666666</v>
       </c>
       <c r="H4">
-        <v>19.220865</v>
+        <v>18.97787</v>
       </c>
       <c r="I4">
-        <v>0.2800966009992835</v>
+        <v>0.4468357575736242</v>
       </c>
       <c r="J4">
-        <v>0.3266544289500554</v>
+        <v>0.4592138460625664</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N4">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O4">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P4">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q4">
-        <v>120.493917655835</v>
+        <v>149.8642751238222</v>
       </c>
       <c r="R4">
-        <v>1084.445258902515</v>
+        <v>1348.7784761144</v>
       </c>
       <c r="S4">
-        <v>0.03730597469538437</v>
+        <v>0.07593252427307358</v>
       </c>
       <c r="T4">
-        <v>0.04629497915146411</v>
+        <v>0.08325485840100585</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.406955</v>
+        <v>6.325956666666666</v>
       </c>
       <c r="H5">
-        <v>19.220865</v>
+        <v>18.97787</v>
       </c>
       <c r="I5">
-        <v>0.2800966009992835</v>
+        <v>0.4468357575736242</v>
       </c>
       <c r="J5">
-        <v>0.3266544289500554</v>
+        <v>0.4592138460625664</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N5">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O5">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P5">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q5">
-        <v>163.445131676945</v>
+        <v>165.846761414785</v>
       </c>
       <c r="R5">
-        <v>980.67079006167</v>
+        <v>995.08056848871</v>
       </c>
       <c r="S5">
-        <v>0.05060404761541589</v>
+        <v>0.08403045506565168</v>
       </c>
       <c r="T5">
-        <v>0.04186484601933793</v>
+        <v>0.06142245987330927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.406955</v>
+        <v>6.325956666666666</v>
       </c>
       <c r="H6">
-        <v>19.220865</v>
+        <v>18.97787</v>
       </c>
       <c r="I6">
-        <v>0.2800966009992835</v>
+        <v>0.4468357575736242</v>
       </c>
       <c r="J6">
-        <v>0.3266544289500554</v>
+        <v>0.4592138460625664</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N6">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O6">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P6">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q6">
-        <v>136.019097244915</v>
+        <v>153.7065009455866</v>
       </c>
       <c r="R6">
-        <v>1224.171875204235</v>
+        <v>1383.35850851028</v>
       </c>
       <c r="S6">
-        <v>0.04211270658824078</v>
+        <v>0.07787928513541188</v>
       </c>
       <c r="T6">
-        <v>0.05225990982499499</v>
+        <v>0.08538934953621061</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.686450999999999</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H7">
         <v>20.059353</v>
       </c>
       <c r="I7">
-        <v>0.2923154911886005</v>
+        <v>0.4722993778644153</v>
       </c>
       <c r="J7">
-        <v>0.3409043505233806</v>
+        <v>0.4853828506917099</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N7">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O7">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P7">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q7">
-        <v>273.591532646385</v>
+        <v>203.71111006692</v>
       </c>
       <c r="R7">
-        <v>2462.323793817465</v>
+        <v>1833.39999060228</v>
       </c>
       <c r="S7">
-        <v>0.08470634030615903</v>
+        <v>0.1032153847010624</v>
       </c>
       <c r="T7">
-        <v>0.1051166278455562</v>
+        <v>0.1131686628405626</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.686450999999999</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H8">
         <v>20.059353</v>
       </c>
       <c r="I8">
-        <v>0.2923154911886005</v>
+        <v>0.4722993778644153</v>
       </c>
       <c r="J8">
-        <v>0.3409043505233806</v>
+        <v>0.4853828506917099</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>104.214408</v>
       </c>
       <c r="O8">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P8">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q8">
         <v>232.274844195336</v>
@@ -948,10 +948,10 @@
         <v>2090.473597758024</v>
       </c>
       <c r="S8">
-        <v>0.0719143308517526</v>
+        <v>0.1176879228242645</v>
       </c>
       <c r="T8">
-        <v>0.08924233918716745</v>
+        <v>0.1290368184653799</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.686450999999999</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H9">
         <v>20.059353</v>
       </c>
       <c r="I9">
-        <v>0.2923154911886005</v>
+        <v>0.4722993778644153</v>
       </c>
       <c r="J9">
-        <v>0.3409043505233806</v>
+        <v>0.4853828506917099</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N9">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O9">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P9">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q9">
-        <v>125.750325420387</v>
+        <v>158.40452046504</v>
       </c>
       <c r="R9">
-        <v>1131.752928783483</v>
+        <v>1425.64068418536</v>
       </c>
       <c r="S9">
-        <v>0.0389334046841171</v>
+        <v>0.0802596555132189</v>
       </c>
       <c r="T9">
-        <v>0.04831454406067879</v>
+        <v>0.08799926407077255</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.686450999999999</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H10">
         <v>20.059353</v>
       </c>
       <c r="I10">
-        <v>0.2923154911886005</v>
+        <v>0.4722993778644153</v>
       </c>
       <c r="J10">
-        <v>0.3409043505233806</v>
+        <v>0.4853828506917099</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N10">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O10">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P10">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q10">
-        <v>170.575236465129</v>
+        <v>175.2977932257915</v>
       </c>
       <c r="R10">
-        <v>1023.451418790774</v>
+        <v>1051.786759354749</v>
       </c>
       <c r="S10">
-        <v>0.05281159065143194</v>
+        <v>0.08881905929972886</v>
       </c>
       <c r="T10">
-        <v>0.0436911514956556</v>
+        <v>0.06492271286119286</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.686450999999999</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H11">
         <v>20.059353</v>
       </c>
       <c r="I11">
-        <v>0.2923154911886005</v>
+        <v>0.4722993778644153</v>
       </c>
       <c r="J11">
-        <v>0.3409043505233806</v>
+        <v>0.4853828506917099</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N11">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O11">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P11">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q11">
-        <v>141.952773008763</v>
+        <v>162.465701412348</v>
       </c>
       <c r="R11">
-        <v>1277.574957078867</v>
+        <v>1462.191312711132</v>
       </c>
       <c r="S11">
-        <v>0.04394982469513975</v>
+        <v>0.0823173555261407</v>
       </c>
       <c r="T11">
-        <v>0.05453968793432255</v>
+        <v>0.09025539245380199</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.7806845</v>
+        <v>1.1448225</v>
       </c>
       <c r="H12">
-        <v>19.561369</v>
+        <v>2.289645</v>
       </c>
       <c r="I12">
-        <v>0.4275879078121161</v>
+        <v>0.08086486456196039</v>
       </c>
       <c r="J12">
-        <v>0.332441220526564</v>
+        <v>0.05540330324572383</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N12">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O12">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P12">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q12">
-        <v>400.1992181929908</v>
+        <v>34.87845230670001</v>
       </c>
       <c r="R12">
-        <v>2401.195309157945</v>
+        <v>209.2707138402</v>
       </c>
       <c r="S12">
-        <v>0.1239051912119262</v>
+        <v>0.01767204975433635</v>
       </c>
       <c r="T12">
-        <v>0.1025070522126312</v>
+        <v>0.0129174686257119</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.7806845</v>
+        <v>1.1448225</v>
       </c>
       <c r="H13">
-        <v>19.561369</v>
+        <v>2.289645</v>
       </c>
       <c r="I13">
-        <v>0.4275879078121161</v>
+        <v>0.08086486456196039</v>
       </c>
       <c r="J13">
-        <v>0.332441220526564</v>
+        <v>0.05540330324572383</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>104.214408</v>
       </c>
       <c r="O13">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P13">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q13">
-        <v>339.762748334092</v>
+        <v>39.76899970086</v>
       </c>
       <c r="R13">
-        <v>2038.576490004552</v>
+        <v>238.61399820516</v>
       </c>
       <c r="S13">
-        <v>0.1051935295853673</v>
+        <v>0.02014996924788375</v>
       </c>
       <c r="T13">
-        <v>0.08702685112841591</v>
+        <v>0.01472871563779573</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.7806845</v>
+        <v>1.1448225</v>
       </c>
       <c r="H14">
-        <v>19.561369</v>
+        <v>2.289645</v>
       </c>
       <c r="I14">
-        <v>0.4275879078121161</v>
+        <v>0.08086486456196039</v>
       </c>
       <c r="J14">
-        <v>0.332441220526564</v>
+        <v>0.05540330324572383</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N14">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O14">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P14">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q14">
-        <v>183.9427610714765</v>
+        <v>27.1212724254</v>
       </c>
       <c r="R14">
-        <v>1103.656566428859</v>
+        <v>162.7276345524</v>
       </c>
       <c r="S14">
-        <v>0.05695029362006416</v>
+        <v>0.01374167842907725</v>
       </c>
       <c r="T14">
-        <v>0.04711511006549894</v>
+        <v>0.01004454505503363</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.7806845</v>
+        <v>1.1448225</v>
       </c>
       <c r="H15">
-        <v>19.561369</v>
+        <v>2.289645</v>
       </c>
       <c r="I15">
-        <v>0.4275879078121161</v>
+        <v>0.08086486456196039</v>
       </c>
       <c r="J15">
-        <v>0.332441220526564</v>
+        <v>0.05540330324572383</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N15">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O15">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P15">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q15">
-        <v>249.5109246113255</v>
+        <v>30.01365864869625</v>
       </c>
       <c r="R15">
-        <v>998.043698445302</v>
+        <v>120.054634594785</v>
       </c>
       <c r="S15">
-        <v>0.07725077266023565</v>
+        <v>0.01520717904238943</v>
       </c>
       <c r="T15">
-        <v>0.04260649565523979</v>
+        <v>0.007410506454972198</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.7806845</v>
+        <v>1.1448225</v>
       </c>
       <c r="H16">
-        <v>19.561369</v>
+        <v>2.289645</v>
       </c>
       <c r="I16">
-        <v>0.4275879078121161</v>
+        <v>0.08086486456196039</v>
       </c>
       <c r="J16">
-        <v>0.332441220526564</v>
+        <v>0.05540330324572383</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N16">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O16">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P16">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q16">
-        <v>207.6430810154485</v>
+        <v>27.81660860973</v>
       </c>
       <c r="R16">
-        <v>1245.858486092691</v>
+        <v>166.89965165838</v>
       </c>
       <c r="S16">
-        <v>0.06428812073452279</v>
+        <v>0.01409398808827362</v>
       </c>
       <c r="T16">
-        <v>0.05318571146477812</v>
+        <v>0.01030206747221037</v>
       </c>
     </row>
   </sheetData>
